--- a/reports/封神第二部：战火西岐_分析报告.xlsx
+++ b/reports/封神第二部：战火西岐_分析报告.xlsx
@@ -449,17 +449,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.999908041201711</v>
+        <v>0.3799008056825682</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>正面</t>
+          <t>负面</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9996823745611028</v>
+        <v>0.9999994424699983</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9950840943265844</v>
+        <v>0.9996480076163605</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9998618114139498</v>
+        <v>0.9999971804154029</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5286844796875773</v>
+        <v>0.4110695987935092</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -499,37 +499,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.141286490784559</v>
+        <v>0.7493242591583646</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>负面</t>
+          <t>正面</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02830625526435737</v>
+        <v>0.9996545259319687</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>负面</t>
+          <t>正面</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3799008056825682</v>
+        <v>0.9999999983184777</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>负面</t>
+          <t>正面</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9882723255973643</v>
+        <v>0.9976064458550428</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9999882954818342</v>
+        <v>0.9999998786019609</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9220021913861068</v>
+        <v>0.9997429332224204</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9995861030651624</v>
+        <v>0.8028049126481788</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.999960652098722</v>
+        <v>0.9831474262603161</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7493242591583646</v>
+        <v>0.9999882954818342</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7333222212866276</v>
+        <v>0.7083519799061921</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -599,17 +599,17 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9999999999964027</v>
+        <v>0.3590097275373016</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>正面</t>
+          <t>负面</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9999999997952256</v>
+        <v>0.7456048808277097</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.813809627199197</v>
+        <v>0.9999999997952256</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9293545245962825</v>
+        <v>0.9999158618680577</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9999984923605897</v>
+        <v>0.9996441757271626</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -685,33 +685,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>姬发</t>
+          <t>殷郊</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>女将军</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>天下</t>
+          <t>郑则仕</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -721,27 +721,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>特效</t>
+          <t>百姓</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>郑则仕</t>
+          <t>观众</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>百姓</t>
+          <t>姬发</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -751,7 +751,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>一点</t>
+          <t>杨戬</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -761,7 +761,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>好看</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -771,27 +771,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>洗澡</t>
+          <t>逻辑</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>魅力</t>
+          <t>特效</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>像是</t>
+          <t>牺牲</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -801,7 +801,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>具象化</t>
+          <t>西岐</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -811,7 +811,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>top1</t>
+          <t>看到</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -821,7 +821,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>真正</t>
+          <t>恋爱</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -831,7 +831,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>凝视</t>
+          <t>姜子牙</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>塑造</t>
+          <t>震撼</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -851,7 +851,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>怀里</t>
+          <t>视听</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -861,7 +861,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>男人</t>
+          <t>希望</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -871,7 +871,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>截教</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -881,7 +881,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>出场</t>
+          <t>女将军</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -891,7 +891,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>全是</t>
+          <t>水平</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -901,7 +901,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>殷郊</t>
+          <t>大片</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -911,7 +911,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>法相</t>
+          <t>智力</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -921,7 +921,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>刚刚</t>
+          <t>谋略</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -931,7 +931,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>完全</t>
+          <t>阵营</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -941,7 +941,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>神话</t>
+          <t>人头</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -951,7 +951,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>反派</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -961,7 +961,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>礼物</t>
+          <t>男主</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -971,7 +971,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>家人</t>
+          <t>主角</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -981,7 +981,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>不了</t>
+          <t>正派</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -991,7 +991,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>他会</t>
+          <t>到底</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1001,7 +1001,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>冲锋在前</t>
+          <t>共主</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1011,7 +1011,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>感情</t>
+          <t>三头</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1021,7 +1021,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>需要</t>
+          <t>巨人</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1031,7 +1031,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>犹豫</t>
+          <t>好好</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1041,7 +1041,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>演员</t>
+          <t>女主</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1051,7 +1051,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>玄幻</t>
+          <t>加油</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1061,7 +1061,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>容易</t>
+          <t>乌尔</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1071,7 +1071,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>魔礼青</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1081,7 +1081,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>巨人</t>
+          <t>傻子</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1091,7 +1091,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>做得好</t>
+          <t>超级</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1101,7 +1101,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>这种</t>
+          <t>家人</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1111,7 +1111,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>毫无</t>
+          <t>不了</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1121,57 +1121,57 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>表情</t>
+          <t>玩意</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>哪吒</t>
+          <t>久等</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>厉害</t>
+          <t>一坨翔</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>娇妻</t>
+          <t>之姬发</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>观众</t>
+          <t>异性恋</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>那段</t>
+          <t>对象</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8104166522472145</v>
+        <v>0.8567705168059027</v>
       </c>
     </row>
     <row r="4">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
